--- a/bernard/experiment/results/results_complete/tap_res_quant_0.95.xlsx
+++ b/bernard/experiment/results/results_complete/tap_res_quant_0.95.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,26 +447,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ftap_0.75_wu_0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.5_wu_0</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.25_wu_0</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0_wu_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>bern_wu_0</t>
         </is>
       </c>
@@ -483,18 +463,6 @@
       <c r="C2" t="n">
         <v>50</v>
       </c>
-      <c r="D2" t="n">
-        <v>50</v>
-      </c>
-      <c r="E2" t="n">
-        <v>50</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -506,18 +474,6 @@
         <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50</v>
-      </c>
-      <c r="E3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -531,18 +487,6 @@
         <v>750</v>
       </c>
       <c r="C4" t="n">
-        <v>794</v>
-      </c>
-      <c r="D4" t="n">
-        <v>871</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1008</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1141</v>
-      </c>
-      <c r="G4" t="n">
         <v>45</v>
       </c>
     </row>
@@ -556,18 +500,6 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
         <v>45</v>
       </c>
     </row>
@@ -581,18 +513,6 @@
         <v>1919</v>
       </c>
       <c r="C6" t="n">
-        <v>1875</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1798</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1661</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1528</v>
-      </c>
-      <c r="G6" t="n">
         <v>2624</v>
       </c>
     </row>
@@ -606,18 +526,6 @@
         <v>0.0625</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05924170616113744</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.05428881650380022</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.04725897920604915</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.04198152812762385</v>
-      </c>
-      <c r="G7" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -631,18 +539,6 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -656,18 +552,6 @@
         <v>0.2810041213937804</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2974896965155489</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.3263394529786437</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3776695391532409</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.4275009366804046</v>
-      </c>
-      <c r="G9" t="n">
         <v>0.01686024728362683</v>
       </c>
     </row>
@@ -681,18 +565,6 @@
         <v>0.6463413213462925</v>
       </c>
       <c r="C10" t="n">
-        <v>0.646382697526066</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.6464405438356522</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.6464756935029354</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.646504415802487</v>
-      </c>
-      <c r="G10" t="n">
         <v>0.6463423256225005</v>
       </c>
     </row>
@@ -706,18 +578,6 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1118568232662192</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.1029866117404737</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.09025270758122744</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.08058017727639001</v>
-      </c>
-      <c r="G11" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -731,18 +591,6 @@
         <v>0.9375</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9407582938388626</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.9457111834961998</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.9527410207939508</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.9580184718723762</v>
-      </c>
-      <c r="G12" t="n">
         <v>0.570857007957476</v>
       </c>
     </row>
@@ -757,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,26 +621,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ftap_0.75_wu_0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.5_wu_0</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.25_wu_0</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0_wu_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>bern_wu_0</t>
         </is>
       </c>
@@ -809,18 +637,6 @@
       <c r="C2" t="n">
         <v>50</v>
       </c>
-      <c r="D2" t="n">
-        <v>50</v>
-      </c>
-      <c r="E2" t="n">
-        <v>50</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -832,18 +648,6 @@
         <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>48</v>
-      </c>
-      <c r="D3" t="n">
-        <v>48</v>
-      </c>
-      <c r="E3" t="n">
-        <v>48</v>
-      </c>
-      <c r="F3" t="n">
-        <v>48</v>
-      </c>
-      <c r="G3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -857,18 +661,6 @@
         <v>434</v>
       </c>
       <c r="C4" t="n">
-        <v>453</v>
-      </c>
-      <c r="D4" t="n">
-        <v>475</v>
-      </c>
-      <c r="E4" t="n">
-        <v>498</v>
-      </c>
-      <c r="F4" t="n">
-        <v>556</v>
-      </c>
-      <c r="G4" t="n">
         <v>41</v>
       </c>
     </row>
@@ -882,18 +674,6 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
         <v>41</v>
       </c>
     </row>
@@ -907,18 +687,6 @@
         <v>1053</v>
       </c>
       <c r="C6" t="n">
-        <v>1034</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1012</v>
-      </c>
-      <c r="E6" t="n">
-        <v>989</v>
-      </c>
-      <c r="F6" t="n">
-        <v>931</v>
-      </c>
-      <c r="G6" t="n">
         <v>1446</v>
       </c>
     </row>
@@ -932,18 +700,6 @@
         <v>0.09958506224066389</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09580838323353294</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.09177820267686425</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.08791208791208792</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.07947019867549669</v>
-      </c>
-      <c r="G7" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -957,18 +713,6 @@
         <v>0.96</v>
       </c>
       <c r="C8" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="G8" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -982,18 +726,6 @@
         <v>0.2918628110289173</v>
       </c>
       <c r="C9" t="n">
-        <v>0.304640215198386</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.3194351042367182</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3349024882313383</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.3739071956960323</v>
-      </c>
-      <c r="G9" t="n">
         <v>0.02757229320780094</v>
       </c>
     </row>
@@ -1007,18 +739,6 @@
         <v>0.6463413213462925</v>
       </c>
       <c r="C10" t="n">
-        <v>0.646382697526066</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.6464405438356522</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.6464756935029354</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.646504415802487</v>
-      </c>
-      <c r="G10" t="n">
         <v>0.6463423256225005</v>
       </c>
     </row>
@@ -1032,18 +752,6 @@
         <v>0.1804511278195488</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1742286751361161</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.1675392670157068</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1610738255033557</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1467889908256881</v>
-      </c>
-      <c r="G11" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1057,18 +765,6 @@
         <v>0.8965475722053021</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9004709177703706</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.9046576095658808</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.9086738641079776</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.9174435923889994</v>
-      </c>
-      <c r="G12" t="n">
         <v>0.583170245782498</v>
       </c>
     </row>
@@ -1083,7 +779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,26 +795,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ftap_0.75_wu_0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.5_wu_0</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.25_wu_0</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0_wu_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>bern_wu_0</t>
         </is>
       </c>
@@ -1135,18 +811,6 @@
       <c r="C2" t="n">
         <v>21744</v>
       </c>
-      <c r="D2" t="n">
-        <v>21744</v>
-      </c>
-      <c r="E2" t="n">
-        <v>21744</v>
-      </c>
-      <c r="F2" t="n">
-        <v>21744</v>
-      </c>
-      <c r="G2" t="n">
-        <v>21744</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1158,18 +822,6 @@
         <v>12448</v>
       </c>
       <c r="C3" t="n">
-        <v>12451</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12455</v>
-      </c>
-      <c r="E3" t="n">
-        <v>12457</v>
-      </c>
-      <c r="F3" t="n">
-        <v>12459</v>
-      </c>
-      <c r="G3" t="n">
         <v>15867</v>
       </c>
     </row>
@@ -1183,18 +835,6 @@
         <v>3814</v>
       </c>
       <c r="C4" t="n">
-        <v>3816</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3817</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3817</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3818</v>
-      </c>
-      <c r="G4" t="n">
         <v>5877</v>
       </c>
     </row>
@@ -1208,18 +848,6 @@
         <v>9296</v>
       </c>
       <c r="C5" t="n">
-        <v>9293</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9289</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9287</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9285</v>
-      </c>
-      <c r="G5" t="n">
         <v>5877</v>
       </c>
     </row>
@@ -1233,18 +861,6 @@
         <v>75334</v>
       </c>
       <c r="C6" t="n">
-        <v>75332</v>
-      </c>
-      <c r="D6" t="n">
-        <v>75331</v>
-      </c>
-      <c r="E6" t="n">
-        <v>75331</v>
-      </c>
-      <c r="F6" t="n">
-        <v>75330</v>
-      </c>
-      <c r="G6" t="n">
         <v>73271</v>
       </c>
     </row>
@@ -1258,18 +874,6 @@
         <v>0.765465502398229</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7654146431425586</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.7654252704031466</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.7654540985621237</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.76543589113473</v>
-      </c>
-      <c r="G7" t="n">
         <v>0.7297185430463576</v>
       </c>
     </row>
@@ -1283,18 +887,6 @@
         <v>0.5724797645327446</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5726177336276674</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.5728016924208977</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5728936718175128</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.572985651214128</v>
-      </c>
-      <c r="G8" t="n">
         <v>0.7297185430463576</v>
       </c>
     </row>
@@ -1308,18 +900,6 @@
         <v>0.04818820437661091</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04821347349269722</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.04822610805074039</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.04822610805074039</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.04823874260878355</v>
-      </c>
-      <c r="G9" t="n">
         <v>0.07425329761964926</v>
       </c>
     </row>
@@ -1333,18 +913,6 @@
         <v>0.6463413213462925</v>
       </c>
       <c r="C10" t="n">
-        <v>0.646382697526066</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.6464405438356522</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.6464756935029354</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.646504415802487</v>
-      </c>
-      <c r="G10" t="n">
         <v>0.6463423256225005</v>
       </c>
     </row>
@@ -1358,18 +926,6 @@
         <v>0.6550544650844603</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6551261476940885</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.655250420875421</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.6553211636593193</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.6553746613713474</v>
-      </c>
-      <c r="G11" t="n">
         <v>0.7297185430463576</v>
       </c>
     </row>
@@ -1383,18 +939,6 @@
         <v>0.3210734499722662</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3210663012140709</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.321047577289619</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.3210300341514097</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.3210179450674741</v>
-      </c>
-      <c r="G12" t="n">
         <v>0.314737366400954</v>
       </c>
     </row>
@@ -1409,7 +953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,26 +969,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ftap_0.75_wu_0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.5_wu_0</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.25_wu_0</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0_wu_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>bern_wu_0</t>
         </is>
       </c>
@@ -1461,18 +985,6 @@
       <c r="C2" t="n">
         <v>990</v>
       </c>
-      <c r="D2" t="n">
-        <v>990</v>
-      </c>
-      <c r="E2" t="n">
-        <v>990</v>
-      </c>
-      <c r="F2" t="n">
-        <v>990</v>
-      </c>
-      <c r="G2" t="n">
-        <v>990</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1484,18 +996,6 @@
         <v>450</v>
       </c>
       <c r="C3" t="n">
-        <v>538</v>
-      </c>
-      <c r="D3" t="n">
-        <v>647</v>
-      </c>
-      <c r="E3" t="n">
-        <v>782</v>
-      </c>
-      <c r="F3" t="n">
-        <v>957</v>
-      </c>
-      <c r="G3" t="n">
         <v>363</v>
       </c>
     </row>
@@ -1509,18 +1009,6 @@
         <v>814</v>
       </c>
       <c r="C4" t="n">
-        <v>1017</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1512</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1815</v>
-      </c>
-      <c r="G4" t="n">
         <v>627</v>
       </c>
     </row>
@@ -1534,18 +1022,6 @@
         <v>540</v>
       </c>
       <c r="C5" t="n">
-        <v>452</v>
-      </c>
-      <c r="D5" t="n">
-        <v>343</v>
-      </c>
-      <c r="E5" t="n">
-        <v>208</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="n">
         <v>627</v>
       </c>
     </row>
@@ -1559,18 +1035,6 @@
         <v>4215</v>
       </c>
       <c r="C6" t="n">
-        <v>4012</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3779</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3517</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3214</v>
-      </c>
-      <c r="G6" t="n">
         <v>4402</v>
       </c>
     </row>
@@ -1584,18 +1048,6 @@
         <v>0.3560126582278481</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3459807073954984</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.3410648392198208</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.3408892763731474</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.3452380952380952</v>
-      </c>
-      <c r="G7" t="n">
         <v>0.3666666666666666</v>
       </c>
     </row>
@@ -1609,18 +1061,6 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5434343434343434</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6535353535353535</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.7898989898989899</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.9666666666666667</v>
-      </c>
-      <c r="G8" t="n">
         <v>0.3666666666666666</v>
       </c>
     </row>
@@ -1634,18 +1074,6 @@
         <v>0.1618612050109366</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2022270829190694</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.248558361503281</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3006561940743687</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.360906740902764</v>
-      </c>
-      <c r="G9" t="n">
         <v>0.1246768741300457</v>
       </c>
     </row>
@@ -1659,18 +1087,6 @@
         <v>0.6463413213462925</v>
       </c>
       <c r="C10" t="n">
-        <v>0.646382697526066</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.6464405438356522</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.6464756935029354</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.646504415802487</v>
-      </c>
-      <c r="G10" t="n">
         <v>0.6463423256225005</v>
       </c>
     </row>
@@ -1684,18 +1100,6 @@
         <v>0.3992901508429459</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4227897838899804</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.4482161413231728</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.4762484774665043</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.5087719298245613</v>
-      </c>
-      <c r="G11" t="n">
         <v>0.3666666666666666</v>
       </c>
     </row>
@@ -1709,18 +1113,6 @@
         <v>0.5493755070165758</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5683202367852849</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.5913678120888393</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.6194461834297972</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.6477959434965227</v>
-      </c>
-      <c r="G12" t="n">
         <v>0.5312528520068494</v>
       </c>
     </row>
@@ -1735,7 +1127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,26 +1143,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ftap_0.75_wu_0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.5_wu_0</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.25_wu_0</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0_wu_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>bern_wu_0</t>
         </is>
       </c>
@@ -1787,18 +1159,6 @@
       <c r="C2" t="n">
         <v>990</v>
       </c>
-      <c r="D2" t="n">
-        <v>990</v>
-      </c>
-      <c r="E2" t="n">
-        <v>990</v>
-      </c>
-      <c r="F2" t="n">
-        <v>990</v>
-      </c>
-      <c r="G2" t="n">
-        <v>990</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1810,18 +1170,6 @@
         <v>302</v>
       </c>
       <c r="C3" t="n">
-        <v>367</v>
-      </c>
-      <c r="D3" t="n">
-        <v>427</v>
-      </c>
-      <c r="E3" t="n">
-        <v>528</v>
-      </c>
-      <c r="F3" t="n">
-        <v>630</v>
-      </c>
-      <c r="G3" t="n">
         <v>260</v>
       </c>
     </row>
@@ -1835,18 +1183,6 @@
         <v>883</v>
       </c>
       <c r="C4" t="n">
-        <v>1096</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1343</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1627</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1958</v>
-      </c>
-      <c r="G4" t="n">
         <v>730</v>
       </c>
     </row>
@@ -1860,18 +1196,6 @@
         <v>688</v>
       </c>
       <c r="C5" t="n">
-        <v>623</v>
-      </c>
-      <c r="D5" t="n">
-        <v>563</v>
-      </c>
-      <c r="E5" t="n">
-        <v>462</v>
-      </c>
-      <c r="F5" t="n">
-        <v>360</v>
-      </c>
-      <c r="G5" t="n">
         <v>730</v>
       </c>
     </row>
@@ -1885,18 +1209,6 @@
         <v>4146</v>
       </c>
       <c r="C6" t="n">
-        <v>3933</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3686</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3402</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3071</v>
-      </c>
-      <c r="G6" t="n">
         <v>4299</v>
       </c>
     </row>
@@ -1910,18 +1222,6 @@
         <v>0.2548523206751055</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2508544087491456</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.2412429378531074</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2450116009280743</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2434312210200927</v>
-      </c>
-      <c r="G7" t="n">
         <v>0.2626262626262627</v>
       </c>
     </row>
@@ -1935,18 +1235,6 @@
         <v>0.3050505050505051</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3707070707070707</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.4313131313131313</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="G8" t="n">
         <v>0.2626262626262627</v>
       </c>
     </row>
@@ -1960,18 +1248,6 @@
         <v>0.1755816265659177</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2179359713660768</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.2670511035991251</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3235235633326705</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.3893418174587393</v>
-      </c>
-      <c r="G9" t="n">
         <v>0.1451580831179161</v>
       </c>
     </row>
@@ -1985,18 +1261,6 @@
         <v>0.6463413213462925</v>
       </c>
       <c r="C10" t="n">
-        <v>0.646382697526066</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.6464405438356522</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.6464756935029354</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.646504415802487</v>
-      </c>
-      <c r="G10" t="n">
         <v>0.6463423256225005</v>
       </c>
     </row>
@@ -2010,18 +1274,6 @@
         <v>0.2777011494252874</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2992254382388912</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.3094202898550725</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.3357710651828299</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.3521520402459474</v>
-      </c>
-      <c r="G11" t="n">
         <v>0.2626262626262627</v>
       </c>
     </row>
@@ -2035,18 +1287,6 @@
         <v>0.5969586603425113</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6164338113583975</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.6362246860158759</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.658296481202307</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.6844712279105918</v>
-      </c>
-      <c r="G12" t="n">
         <v>0.5798256902718582</v>
       </c>
     </row>
@@ -2061,7 +1301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2077,26 +1317,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ftap_0.75_wu_0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.5_wu_0</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.25_wu_0</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0_wu_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>bern_wu_0</t>
         </is>
       </c>
@@ -2113,18 +1333,6 @@
       <c r="C2" t="n">
         <v>990</v>
       </c>
-      <c r="D2" t="n">
-        <v>990</v>
-      </c>
-      <c r="E2" t="n">
-        <v>990</v>
-      </c>
-      <c r="F2" t="n">
-        <v>990</v>
-      </c>
-      <c r="G2" t="n">
-        <v>990</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2136,18 +1344,6 @@
         <v>290</v>
       </c>
       <c r="C3" t="n">
-        <v>351</v>
-      </c>
-      <c r="D3" t="n">
-        <v>413</v>
-      </c>
-      <c r="E3" t="n">
-        <v>508</v>
-      </c>
-      <c r="F3" t="n">
-        <v>608</v>
-      </c>
-      <c r="G3" t="n">
         <v>250</v>
       </c>
     </row>
@@ -2161,18 +1357,6 @@
         <v>886</v>
       </c>
       <c r="C4" t="n">
-        <v>1103</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1350</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1636</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1972</v>
-      </c>
-      <c r="G4" t="n">
         <v>740</v>
       </c>
     </row>
@@ -2186,18 +1370,6 @@
         <v>700</v>
       </c>
       <c r="C5" t="n">
-        <v>639</v>
-      </c>
-      <c r="D5" t="n">
-        <v>577</v>
-      </c>
-      <c r="E5" t="n">
-        <v>482</v>
-      </c>
-      <c r="F5" t="n">
-        <v>382</v>
-      </c>
-      <c r="G5" t="n">
         <v>740</v>
       </c>
     </row>
@@ -2211,18 +1383,6 @@
         <v>4143</v>
       </c>
       <c r="C6" t="n">
-        <v>3926</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3679</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3393</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3057</v>
-      </c>
-      <c r="G6" t="n">
         <v>4289</v>
       </c>
     </row>
@@ -2236,18 +1396,6 @@
         <v>0.2465986394557823</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2414030261348006</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.2342597844583097</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2369402985074627</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2356589147286822</v>
-      </c>
-      <c r="G7" t="n">
         <v>0.2525252525252525</v>
       </c>
     </row>
@@ -2261,18 +1409,6 @@
         <v>0.2929292929292929</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3545454545454546</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.4171717171717172</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5131313131313131</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.6141414141414141</v>
-      </c>
-      <c r="G8" t="n">
         <v>0.2525252525252525</v>
       </c>
     </row>
@@ -2286,18 +1422,6 @@
         <v>0.1761781666335256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2193278981904951</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.2684430304235434</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3253131835354942</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.3921256711075761</v>
-      </c>
-      <c r="G9" t="n">
         <v>0.1471465500099423</v>
       </c>
     </row>
@@ -2311,18 +1435,6 @@
         <v>0.6463413213462925</v>
       </c>
       <c r="C10" t="n">
-        <v>0.646382697526066</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.6464405438356522</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.6464756935029354</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.646504415802487</v>
-      </c>
-      <c r="G10" t="n">
         <v>0.6463423256225005</v>
       </c>
     </row>
@@ -2336,18 +1448,6 @@
         <v>0.2677746999076639</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2872340425531915</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.3000363240101707</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.3241863433312061</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.3406162464985994</v>
-      </c>
-      <c r="G11" t="n">
         <v>0.2525252525252525</v>
       </c>
     </row>
@@ -2361,18 +1461,6 @@
         <v>0.5984356408729998</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6189148818267027</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.6404302923685367</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.6618418728559734</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.688411230897894</v>
-      </c>
-      <c r="G12" t="n">
         <v>0.5843645739937214</v>
       </c>
     </row>
@@ -2387,7 +1475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2403,26 +1491,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ftap_0.75_wu_0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.5_wu_0</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.25_wu_0</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0_wu_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>bern_wu_0</t>
         </is>
       </c>
@@ -2439,18 +1507,6 @@
       <c r="C2" t="n">
         <v>990</v>
       </c>
-      <c r="D2" t="n">
-        <v>990</v>
-      </c>
-      <c r="E2" t="n">
-        <v>990</v>
-      </c>
-      <c r="F2" t="n">
-        <v>990</v>
-      </c>
-      <c r="G2" t="n">
-        <v>990</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2462,18 +1518,6 @@
         <v>269</v>
       </c>
       <c r="C3" t="n">
-        <v>326</v>
-      </c>
-      <c r="D3" t="n">
-        <v>385</v>
-      </c>
-      <c r="E3" t="n">
-        <v>468</v>
-      </c>
-      <c r="F3" t="n">
-        <v>565</v>
-      </c>
-      <c r="G3" t="n">
         <v>225</v>
       </c>
     </row>
@@ -2487,18 +1531,6 @@
         <v>899</v>
       </c>
       <c r="C4" t="n">
-        <v>1117</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1363</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1661</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2011</v>
-      </c>
-      <c r="G4" t="n">
         <v>765</v>
       </c>
     </row>
@@ -2512,18 +1544,6 @@
         <v>721</v>
       </c>
       <c r="C5" t="n">
-        <v>664</v>
-      </c>
-      <c r="D5" t="n">
-        <v>605</v>
-      </c>
-      <c r="E5" t="n">
-        <v>522</v>
-      </c>
-      <c r="F5" t="n">
-        <v>425</v>
-      </c>
-      <c r="G5" t="n">
         <v>765</v>
       </c>
     </row>
@@ -2537,18 +1557,6 @@
         <v>4130</v>
       </c>
       <c r="C6" t="n">
-        <v>3912</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3666</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3368</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3018</v>
-      </c>
-      <c r="G6" t="n">
         <v>4264</v>
       </c>
     </row>
@@ -2562,18 +1570,6 @@
         <v>0.2303082191780822</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2259182259182259</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.2202517162471396</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2198215124471583</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.219332298136646</v>
-      </c>
-      <c r="G7" t="n">
         <v>0.2272727272727273</v>
       </c>
     </row>
@@ -2587,18 +1583,6 @@
         <v>0.2717171717171717</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3292929292929293</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.4727272727272727</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.5707070707070707</v>
-      </c>
-      <c r="G8" t="n">
         <v>0.2272727272727273</v>
       </c>
     </row>
@@ -2612,18 +1596,6 @@
         <v>0.1787631735931597</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2221117518393319</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.2710280373831775</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3302843507655597</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.3998806919864784</v>
-      </c>
-      <c r="G9" t="n">
         <v>0.1521177172400079</v>
       </c>
     </row>
@@ -2637,18 +1609,6 @@
         <v>0.6463413213462925</v>
       </c>
       <c r="C10" t="n">
-        <v>0.646382697526066</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.6464405438356522</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.6464756935029354</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.646504415802487</v>
-      </c>
-      <c r="G10" t="n">
         <v>0.6463423256225005</v>
       </c>
     </row>
@@ -2662,18 +1622,6 @@
         <v>0.2493049119555144</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2679819153308673</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.281227173119065</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.3000961846745752</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.3168816601233875</v>
-      </c>
-      <c r="G11" t="n">
         <v>0.2272727272727273</v>
       </c>
     </row>
@@ -2687,18 +1635,6 @@
         <v>0.6049049337646651</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6240521556350482</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.6467414940247066</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.6667986708584447</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.6926156522952488</v>
-      </c>
-      <c r="G12" t="n">
         <v>0.5914496686274606</v>
       </c>
     </row>

--- a/bernard/experiment/results/results_complete/tap_res_quant_0.95.xlsx
+++ b/bernard/experiment/results/results_complete/tap_res_quant_0.95.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="reimb" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="student" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="real" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delay1.0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delay0.5" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,10 +440,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ftap_1_wu_50</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>bern_wu_50</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ftap_1_wu_0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>bern_wu_0</t>
         </is>
@@ -458,6 +471,12 @@
       <c r="C2" t="n">
         <v>50</v>
       </c>
+      <c r="D2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -471,6 +490,12 @@
       <c r="C3" t="n">
         <v>5</v>
       </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -479,9 +504,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>755</v>
+        <v>731</v>
       </c>
       <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>752</v>
+      </c>
+      <c r="E4" t="n">
         <v>45</v>
       </c>
     </row>
@@ -497,6 +528,12 @@
       <c r="C5" t="n">
         <v>45</v>
       </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -505,9 +542,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1914</v>
+        <v>1888</v>
       </c>
       <c r="C6" t="n">
+        <v>2577</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1917</v>
+      </c>
+      <c r="E6" t="n">
         <v>2624</v>
       </c>
     </row>
@@ -518,9 +561,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06211180124223602</v>
+        <v>0.06402048655569782</v>
       </c>
       <c r="C7" t="n">
+        <v>0.1063829787234043</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06234413965087282</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -536,6 +585,12 @@
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -544,9 +599,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2828774822030723</v>
+        <v>0.2791141657121038</v>
       </c>
       <c r="C9" t="n">
+        <v>0.01603665521191294</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2817534657174972</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.01686024728362683</v>
       </c>
     </row>
@@ -557,10 +618,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6464620353465055</v>
+        <v>0.6948370160141883</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6463423256225005</v>
+        <v>0.6947229302369489</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6948370160141883</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6947229302369489</v>
       </c>
     </row>
     <row r="11">
@@ -570,9 +637,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1169590643274854</v>
+        <v>0.1203369434416366</v>
       </c>
       <c r="C11" t="n">
+        <v>0.1030927835051546</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1173708920187793</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -583,9 +656,15 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.937888198757764</v>
+        <v>0.9158249158249158</v>
       </c>
       <c r="C12" t="n">
+        <v>0.5383227242031354</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9376558603491272</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.570857007957476</v>
       </c>
     </row>
@@ -600,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,10 +690,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ftap_1_wu_50</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>bern_wu_50</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ftap_1_wu_0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>bern_wu_0</t>
         </is>
@@ -627,9 +716,15 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>49</v>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
         <v>50</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>50</v>
       </c>
     </row>
@@ -640,10 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -653,10 +754,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>409</v>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
         <v>435</v>
       </c>
-      <c r="C4" t="n">
-        <v>41</v>
+      <c r="E4" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -666,10 +773,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -679,10 +792,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1052</v>
+        <v>1031</v>
       </c>
       <c r="C6" t="n">
-        <v>1446</v>
+        <v>1404</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1054</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1449</v>
       </c>
     </row>
     <row r="7">
@@ -692,10 +811,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09937888198757763</v>
+        <v>0.1069868995633188</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18</v>
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1030927835051546</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
@@ -705,10 +830,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.18</v>
+        <v>0.2040816326530612</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -718,10 +849,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2925353059852051</v>
+        <v>0.2840277777777778</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02757229320780094</v>
+        <v>0.025</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2921423774345198</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.02686366689053056</v>
       </c>
     </row>
     <row r="10">
@@ -731,10 +868,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6464620353465055</v>
+        <v>0.6948370160141883</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6463423256225005</v>
+        <v>0.6947229302369489</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6948370160141883</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6947229302369489</v>
       </c>
     </row>
     <row r="11">
@@ -744,10 +887,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1801125703564728</v>
+        <v>0.1932938856015779</v>
       </c>
       <c r="C11" t="n">
-        <v>0.18</v>
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
@@ -757,10 +906,766 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8967617594264092</v>
+        <v>0.864840118326525</v>
       </c>
       <c r="C12" t="n">
-        <v>0.583170245782498</v>
+        <v>0.5544983556807068</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8969072164948454</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5808506411066303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ftap_1_wu_50</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>bern_wu_50</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ftap_1_wu_0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>bern_wu_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>traces</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>21736</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21736</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21744</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21744</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>tp</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11310</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15860</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11315</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15868</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>fp</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3199</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5870</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3207</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5876</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>fn</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10426</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5876</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10429</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5876</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>tn</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>75907</v>
+      </c>
+      <c r="C6" t="n">
+        <v>73236</v>
+      </c>
+      <c r="D6" t="n">
+        <v>75941</v>
+      </c>
+      <c r="E6" t="n">
+        <v>73272</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>prec</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7795161623819699</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7298665439484584</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7791626497727586</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7297645327446652</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>tpr_recall</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5203349282296651</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7296650717703349</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5203734363502576</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7297645327446652</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>fpr</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0404394104113468</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07420423229590675</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.040519027644413</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.07424066306160611</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6948370160141883</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6947229302369489</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6948370160141883</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6947229302369489</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>fscore</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6240860808387364</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7297657939538948</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6240004411845808</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7297645327446652</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>med</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.3215360223044577</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3141920161817572</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3225014550576006</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3147220061256978</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ftap_1_wu_50</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>bern_wu_50</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ftap_1_wu_0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>bern_wu_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>traces</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>984</v>
+      </c>
+      <c r="C2" t="n">
+        <v>984</v>
+      </c>
+      <c r="D2" t="n">
+        <v>990</v>
+      </c>
+      <c r="E2" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>tp</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>450</v>
+      </c>
+      <c r="C3" t="n">
+        <v>360</v>
+      </c>
+      <c r="D3" t="n">
+        <v>452</v>
+      </c>
+      <c r="E3" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>fp</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>802</v>
+      </c>
+      <c r="C4" t="n">
+        <v>618</v>
+      </c>
+      <c r="D4" t="n">
+        <v>814</v>
+      </c>
+      <c r="E4" t="n">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>fn</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>534</v>
+      </c>
+      <c r="C5" t="n">
+        <v>624</v>
+      </c>
+      <c r="D5" t="n">
+        <v>538</v>
+      </c>
+      <c r="E5" t="n">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>tn</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4183</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4367</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4215</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>prec</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3594249201277955</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3680981595092024</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3570300157977883</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3656565656565657</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>tpr_recall</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4573170731707317</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3658536585365854</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4565656565656566</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3656565656565657</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>fpr</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1608826479438315</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1239719157472417</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1618612050109366</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1248757208192484</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6948370160141883</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6947229302369489</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6948370160141883</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6947229302369489</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>fscore</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4025044722719142</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3669724770642201</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4007092198581561</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3656565656565657</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>med</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5417865559203369</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5264836958640515</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5470963488447895</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5316622342277069</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ftap_1_wu_50</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>bern_wu_50</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ftap_1_wu_0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>bern_wu_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>traces</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>984</v>
+      </c>
+      <c r="C2" t="n">
+        <v>984</v>
+      </c>
+      <c r="D2" t="n">
+        <v>990</v>
+      </c>
+      <c r="E2" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>tp</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>305</v>
+      </c>
+      <c r="C3" t="n">
+        <v>258</v>
+      </c>
+      <c r="D3" t="n">
+        <v>307</v>
+      </c>
+      <c r="E3" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>fp</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>883</v>
+      </c>
+      <c r="C4" t="n">
+        <v>719</v>
+      </c>
+      <c r="D4" t="n">
+        <v>895</v>
+      </c>
+      <c r="E4" t="n">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>fn</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>679</v>
+      </c>
+      <c r="C5" t="n">
+        <v>726</v>
+      </c>
+      <c r="D5" t="n">
+        <v>683</v>
+      </c>
+      <c r="E5" t="n">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>tn</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4102</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4266</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4134</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>prec</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2567340067340068</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2640736949846469</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2554076539101497</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2626262626262627</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>tpr_recall</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3099593495934959</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2621951219512195</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3101010101010101</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2626262626262627</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>fpr</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1771313941825476</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1442326980942829</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1779677868363492</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1451580831179161</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6948370160141883</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6947229302369489</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6948370160141883</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6947229302369489</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>fscore</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2808471454880295</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2631310555838857</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2801094890510949</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2626262626262627</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>med</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5938351345570101</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5756722371549983</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.597496364849579</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5799345435327842</v>
       </c>
     </row>
   </sheetData>
